--- a/init.xlsx
+++ b/init.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythone selenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\bcoupdatecheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85763546-C655-4B49-BF90-A41A57BB7155}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{869E40BF-D74E-4F2A-A9D2-FD167A5AC140}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6948"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -366,7 +365,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -722,596 +721,596 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84203062-BBE9-4ACD-B359-6419FA3DFB66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{5BD5E35F-1BC9-480C-A11B-4AE52694064A}"/>
-    <hyperlink ref="A111" r:id="rId2" xr:uid="{51F18B0F-887C-4FC0-AE32-7C6E725D42EF}"/>
-    <hyperlink ref="A112" r:id="rId3" xr:uid="{8454C8D4-7B14-4992-97BD-8346E4549350}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{2AD1F193-6977-4A9F-B398-B7FAA60B8439}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{86B23F60-C66D-4CB2-84A1-58B047BEDE1A}"/>
-    <hyperlink ref="A8" r:id="rId6" xr:uid="{CCD4F73A-0D03-44A8-B096-09C9CD93698C}"/>
-    <hyperlink ref="A9" r:id="rId7" xr:uid="{D6849FF8-D37A-4D76-B046-4D8F698B7B4E}"/>
-    <hyperlink ref="A10" r:id="rId8" xr:uid="{8EACA7AA-FD1B-4EB2-B8A7-0F6AAF1C0056}"/>
-    <hyperlink ref="A11" r:id="rId9" xr:uid="{4AEF741A-66EB-4AD7-8C07-E9C0E0A97C84}"/>
-    <hyperlink ref="A13" r:id="rId10" xr:uid="{3787F062-996F-4BAD-97C7-16D57C295A16}"/>
-    <hyperlink ref="A25" r:id="rId11" xr:uid="{C159E5BD-19FD-4450-9551-0DBABE03692C}"/>
-    <hyperlink ref="A28" r:id="rId12" xr:uid="{37F3C038-466B-4B4E-B0ED-F987CD00C1EB}"/>
-    <hyperlink ref="A29" r:id="rId13" xr:uid="{502B0E0E-A2B0-4B9A-9463-5DE00D9FF343}"/>
-    <hyperlink ref="A39" r:id="rId14" xr:uid="{EA7DA62E-2578-45ED-BDBC-B04684F9ECE1}"/>
-    <hyperlink ref="A74" r:id="rId15" xr:uid="{CC47528F-466A-4691-A356-DBB1D72F586A}"/>
-    <hyperlink ref="A6" r:id="rId16" xr:uid="{A70D2AAF-F33E-48F1-B264-184DCC28F350}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A111" r:id="rId2"/>
+    <hyperlink ref="A112" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A7" r:id="rId5"/>
+    <hyperlink ref="A8" r:id="rId6"/>
+    <hyperlink ref="A9" r:id="rId7"/>
+    <hyperlink ref="A10" r:id="rId8"/>
+    <hyperlink ref="A11" r:id="rId9"/>
+    <hyperlink ref="A13" r:id="rId10"/>
+    <hyperlink ref="A25" r:id="rId11"/>
+    <hyperlink ref="A28" r:id="rId12"/>
+    <hyperlink ref="A29" r:id="rId13"/>
+    <hyperlink ref="A39" r:id="rId14"/>
+    <hyperlink ref="A74" r:id="rId15"/>
+    <hyperlink ref="A6" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/init.xlsx
+++ b/init.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\bcoupdatecheck\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythone selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAFADC2-96FA-4AA0-BB47-5ADCD13CCB80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6948"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{869E40BF-D74E-4F2A-A9D2-FD167A5AC140}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>https://bco.com.my/sun-tzu-art-of-war-2021-edisi-bahasa-melayu/</t>
   </si>
@@ -360,12 +361,21 @@
   </si>
   <si>
     <t>https://bco.com.my/ar-rahiq-ar-makhtum-sirah-nabawiyyah./</t>
+  </si>
+  <si>
+    <t>https://bco.com.m</t>
+  </si>
+  <si>
+    <t>https://bco.com.my/150-ungkapan-mudah-bahasa-mandarin/</t>
+  </si>
+  <si>
+    <t>https://bco.com.my/kit-mudah-amal-mudahnya-beribadah-c20-b114/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -721,596 +731,612 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84203062-BBE9-4ACD-B359-6419FA3DFB66}">
+  <dimension ref="A1:A115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A111" r:id="rId2"/>
-    <hyperlink ref="A112" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A7" r:id="rId5"/>
-    <hyperlink ref="A8" r:id="rId6"/>
-    <hyperlink ref="A9" r:id="rId7"/>
-    <hyperlink ref="A10" r:id="rId8"/>
-    <hyperlink ref="A11" r:id="rId9"/>
-    <hyperlink ref="A13" r:id="rId10"/>
-    <hyperlink ref="A25" r:id="rId11"/>
-    <hyperlink ref="A28" r:id="rId12"/>
-    <hyperlink ref="A29" r:id="rId13"/>
-    <hyperlink ref="A39" r:id="rId14"/>
-    <hyperlink ref="A74" r:id="rId15"/>
-    <hyperlink ref="A6" r:id="rId16"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{5BD5E35F-1BC9-480C-A11B-4AE52694064A}"/>
+    <hyperlink ref="A112" r:id="rId2" xr:uid="{51F18B0F-887C-4FC0-AE32-7C6E725D42EF}"/>
+    <hyperlink ref="A113" r:id="rId3" xr:uid="{8454C8D4-7B14-4992-97BD-8346E4549350}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{2AD1F193-6977-4A9F-B398-B7FAA60B8439}"/>
+    <hyperlink ref="A8" r:id="rId5" xr:uid="{86B23F60-C66D-4CB2-84A1-58B047BEDE1A}"/>
+    <hyperlink ref="A9" r:id="rId6" xr:uid="{CCD4F73A-0D03-44A8-B096-09C9CD93698C}"/>
+    <hyperlink ref="A10" r:id="rId7" xr:uid="{D6849FF8-D37A-4D76-B046-4D8F698B7B4E}"/>
+    <hyperlink ref="A11" r:id="rId8" xr:uid="{8EACA7AA-FD1B-4EB2-B8A7-0F6AAF1C0056}"/>
+    <hyperlink ref="A12" r:id="rId9" xr:uid="{4AEF741A-66EB-4AD7-8C07-E9C0E0A97C84}"/>
+    <hyperlink ref="A14" r:id="rId10" xr:uid="{3787F062-996F-4BAD-97C7-16D57C295A16}"/>
+    <hyperlink ref="A26" r:id="rId11" xr:uid="{C159E5BD-19FD-4450-9551-0DBABE03692C}"/>
+    <hyperlink ref="A29" r:id="rId12" xr:uid="{37F3C038-466B-4B4E-B0ED-F987CD00C1EB}"/>
+    <hyperlink ref="A30" r:id="rId13" xr:uid="{502B0E0E-A2B0-4B9A-9463-5DE00D9FF343}"/>
+    <hyperlink ref="A40" r:id="rId14" xr:uid="{EA7DA62E-2578-45ED-BDBC-B04684F9ECE1}"/>
+    <hyperlink ref="A75" r:id="rId15" xr:uid="{CC47528F-466A-4691-A356-DBB1D72F586A}"/>
+    <hyperlink ref="A7" r:id="rId16" xr:uid="{A70D2AAF-F33E-48F1-B264-184DCC28F350}"/>
+    <hyperlink ref="A2" r:id="rId17" xr:uid="{06CC9FE9-772B-41F2-AEF7-83EE7D306CC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/init.xlsx
+++ b/init.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythone selenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repor\bcoupdatecheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAFADC2-96FA-4AA0-BB47-5ADCD13CCB80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3637C961-D349-4CBB-A27D-E8DD6D1D7415}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{869E40BF-D74E-4F2A-A9D2-FD167A5AC140}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>https://bco.com.my/sun-tzu-art-of-war-2021-edisi-bahasa-melayu/</t>
   </si>
@@ -361,9 +361,6 @@
   </si>
   <si>
     <t>https://bco.com.my/ar-rahiq-ar-makhtum-sirah-nabawiyyah./</t>
-  </si>
-  <si>
-    <t>https://bco.com.m</t>
   </si>
   <si>
     <t>https://bco.com.my/150-ungkapan-mudah-bahasa-mandarin/</t>
@@ -732,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84203062-BBE9-4ACD-B359-6419FA3DFB66}">
-  <dimension ref="A1:A115"/>
+  <dimension ref="A1:A114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,562 +747,562 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
+      <c r="A5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
+      <c r="A12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
+      <c r="A13" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
+      <c r="A14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
+      <c r="A26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
+      <c r="A30" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
+      <c r="A40" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>74</v>
+      <c r="A74" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>75</v>
+      <c r="A75" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>111</v>
+      <c r="A111" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>4</v>
+      <c r="A113" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
@@ -1313,30 +1310,24 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{5BD5E35F-1BC9-480C-A11B-4AE52694064A}"/>
-    <hyperlink ref="A112" r:id="rId2" xr:uid="{51F18B0F-887C-4FC0-AE32-7C6E725D42EF}"/>
-    <hyperlink ref="A113" r:id="rId3" xr:uid="{8454C8D4-7B14-4992-97BD-8346E4549350}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{2AD1F193-6977-4A9F-B398-B7FAA60B8439}"/>
-    <hyperlink ref="A8" r:id="rId5" xr:uid="{86B23F60-C66D-4CB2-84A1-58B047BEDE1A}"/>
-    <hyperlink ref="A9" r:id="rId6" xr:uid="{CCD4F73A-0D03-44A8-B096-09C9CD93698C}"/>
-    <hyperlink ref="A10" r:id="rId7" xr:uid="{D6849FF8-D37A-4D76-B046-4D8F698B7B4E}"/>
-    <hyperlink ref="A11" r:id="rId8" xr:uid="{8EACA7AA-FD1B-4EB2-B8A7-0F6AAF1C0056}"/>
-    <hyperlink ref="A12" r:id="rId9" xr:uid="{4AEF741A-66EB-4AD7-8C07-E9C0E0A97C84}"/>
-    <hyperlink ref="A14" r:id="rId10" xr:uid="{3787F062-996F-4BAD-97C7-16D57C295A16}"/>
-    <hyperlink ref="A26" r:id="rId11" xr:uid="{C159E5BD-19FD-4450-9551-0DBABE03692C}"/>
-    <hyperlink ref="A29" r:id="rId12" xr:uid="{37F3C038-466B-4B4E-B0ED-F987CD00C1EB}"/>
-    <hyperlink ref="A30" r:id="rId13" xr:uid="{502B0E0E-A2B0-4B9A-9463-5DE00D9FF343}"/>
-    <hyperlink ref="A40" r:id="rId14" xr:uid="{EA7DA62E-2578-45ED-BDBC-B04684F9ECE1}"/>
-    <hyperlink ref="A75" r:id="rId15" xr:uid="{CC47528F-466A-4691-A356-DBB1D72F586A}"/>
-    <hyperlink ref="A7" r:id="rId16" xr:uid="{A70D2AAF-F33E-48F1-B264-184DCC28F350}"/>
-    <hyperlink ref="A2" r:id="rId17" xr:uid="{06CC9FE9-772B-41F2-AEF7-83EE7D306CC2}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{5BD5E35F-1BC9-480C-A11B-4AE52694064A}"/>
+    <hyperlink ref="A111" r:id="rId2" xr:uid="{51F18B0F-887C-4FC0-AE32-7C6E725D42EF}"/>
+    <hyperlink ref="A112" r:id="rId3" xr:uid="{8454C8D4-7B14-4992-97BD-8346E4549350}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{2AD1F193-6977-4A9F-B398-B7FAA60B8439}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{86B23F60-C66D-4CB2-84A1-58B047BEDE1A}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{CCD4F73A-0D03-44A8-B096-09C9CD93698C}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{D6849FF8-D37A-4D76-B046-4D8F698B7B4E}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{8EACA7AA-FD1B-4EB2-B8A7-0F6AAF1C0056}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{4AEF741A-66EB-4AD7-8C07-E9C0E0A97C84}"/>
+    <hyperlink ref="A13" r:id="rId10" xr:uid="{3787F062-996F-4BAD-97C7-16D57C295A16}"/>
+    <hyperlink ref="A25" r:id="rId11" xr:uid="{C159E5BD-19FD-4450-9551-0DBABE03692C}"/>
+    <hyperlink ref="A28" r:id="rId12" xr:uid="{37F3C038-466B-4B4E-B0ED-F987CD00C1EB}"/>
+    <hyperlink ref="A29" r:id="rId13" xr:uid="{502B0E0E-A2B0-4B9A-9463-5DE00D9FF343}"/>
+    <hyperlink ref="A39" r:id="rId14" xr:uid="{EA7DA62E-2578-45ED-BDBC-B04684F9ECE1}"/>
+    <hyperlink ref="A74" r:id="rId15" xr:uid="{CC47528F-466A-4691-A356-DBB1D72F586A}"/>
+    <hyperlink ref="A6" r:id="rId16" xr:uid="{A70D2AAF-F33E-48F1-B264-184DCC28F350}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/init.xlsx
+++ b/init.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repor\bcoupdatecheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3637C961-D349-4CBB-A27D-E8DD6D1D7415}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CE5DB6-C693-48FE-B888-60DB494AED15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{869E40BF-D74E-4F2A-A9D2-FD167A5AC140}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>https://bco.com.my/sun-tzu-art-of-war-2021-edisi-bahasa-melayu/</t>
   </si>
@@ -237,9 +237,6 @@
     <t>https://bco.com.my/misi-solat-lima-waktu-2-diari-doa-imran/</t>
   </si>
   <si>
-    <t>https://bco.com.my/memulakan-bisnes-sendiri-edisi-kemas-kini-l206-g57/</t>
-  </si>
-  <si>
     <t>https://bco.com.my/tenggelamnya-kapal-van-der-wijck/</t>
   </si>
   <si>
@@ -267,9 +264,6 @@
     <t>https://bco.com.my/ultra-qalif-x-pendekar-tangan-gorila/</t>
   </si>
   <si>
-    <t>https://bco.com.my/riyadus-solihin-taman-orang-soleh-hardcover-l175-pb/</t>
-  </si>
-  <si>
     <t>https://bco.com.my/yasin-tahlil-and-doa-ungu-2020/</t>
   </si>
   <si>
@@ -367,6 +361,30 @@
   </si>
   <si>
     <t>https://bco.com.my/kit-mudah-amal-mudahnya-beribadah-c20-b114/</t>
+  </si>
+  <si>
+    <t>https://bco.com.my/penjejak-kristal/</t>
+  </si>
+  <si>
+    <t>https://bco.com.my/elite-bunian-api-bukit-tengkorak/</t>
+  </si>
+  <si>
+    <t>https://bco.com.my/my-best-buddy/</t>
+  </si>
+  <si>
+    <t>https://bco.com.my/misi-budak-ajaib/</t>
+  </si>
+  <si>
+    <t>https://bco.com.my/miss-genius-matematik/</t>
+  </si>
+  <si>
+    <t>https://bco.com.my/jjajangmyeon-girl/</t>
+  </si>
+  <si>
+    <t>https://bco.com.my/riyadus-solihin-taman-orang-soleh-hardcover-l175-py1-py2/</t>
+  </si>
+  <si>
+    <t>https://bco.com.my/memulakan-bisnes-sendiri-edisi-kemas-kini-l158-bl157-g14/</t>
   </si>
 </sst>
 </file>
@@ -728,11 +746,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84203062-BBE9-4ACD-B359-6419FA3DFB66}">
-  <dimension ref="A1:A114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,213 +1099,213 @@
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>70</v>
+      <c r="A69" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>80</v>
+      <c r="A79" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
@@ -1302,32 +1320,65 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{5BD5E35F-1BC9-480C-A11B-4AE52694064A}"/>
-    <hyperlink ref="A111" r:id="rId2" xr:uid="{51F18B0F-887C-4FC0-AE32-7C6E725D42EF}"/>
-    <hyperlink ref="A112" r:id="rId3" xr:uid="{8454C8D4-7B14-4992-97BD-8346E4549350}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{2AD1F193-6977-4A9F-B398-B7FAA60B8439}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{86B23F60-C66D-4CB2-84A1-58B047BEDE1A}"/>
-    <hyperlink ref="A8" r:id="rId6" xr:uid="{CCD4F73A-0D03-44A8-B096-09C9CD93698C}"/>
-    <hyperlink ref="A9" r:id="rId7" xr:uid="{D6849FF8-D37A-4D76-B046-4D8F698B7B4E}"/>
-    <hyperlink ref="A10" r:id="rId8" xr:uid="{8EACA7AA-FD1B-4EB2-B8A7-0F6AAF1C0056}"/>
-    <hyperlink ref="A11" r:id="rId9" xr:uid="{4AEF741A-66EB-4AD7-8C07-E9C0E0A97C84}"/>
-    <hyperlink ref="A13" r:id="rId10" xr:uid="{3787F062-996F-4BAD-97C7-16D57C295A16}"/>
-    <hyperlink ref="A25" r:id="rId11" xr:uid="{C159E5BD-19FD-4450-9551-0DBABE03692C}"/>
-    <hyperlink ref="A28" r:id="rId12" xr:uid="{37F3C038-466B-4B4E-B0ED-F987CD00C1EB}"/>
-    <hyperlink ref="A29" r:id="rId13" xr:uid="{502B0E0E-A2B0-4B9A-9463-5DE00D9FF343}"/>
-    <hyperlink ref="A39" r:id="rId14" xr:uid="{EA7DA62E-2578-45ED-BDBC-B04684F9ECE1}"/>
-    <hyperlink ref="A74" r:id="rId15" xr:uid="{CC47528F-466A-4691-A356-DBB1D72F586A}"/>
-    <hyperlink ref="A6" r:id="rId16" xr:uid="{A70D2AAF-F33E-48F1-B264-184DCC28F350}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A111" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A112" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A25" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A29" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A39" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A74" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A6" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A115" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A79" r:id="rId18" xr:uid="{4D56E617-9E39-43F0-94A6-A6C79AFB7EA6}"/>
+    <hyperlink ref="A69" r:id="rId19" xr:uid="{AC2B85CC-A869-4DC3-A409-5325657E01B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
